--- a/src/main/resources/TestCases.xlsx
+++ b/src/main/resources/TestCases.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -96,34 +96,28 @@
     <t>login</t>
   </si>
   <si>
-    <t>FerDearrasca@mail.com</t>
+    <t>automation3@test.com</t>
   </si>
   <si>
     <t>1234</t>
   </si>
   <si>
-    <t>2</t>
+    <t>9</t>
   </si>
   <si>
-    <t>altaCarrera</t>
+    <t>agregarPlanEstudio</t>
   </si>
   <si>
-    <t>x</t>
+    <t>&lt;empty&gt;</t>
   </si>
   <si>
-    <t>carrera 1</t>
+    <t>c2</t>
   </si>
   <si>
-    <t>lorem ipsum sit amen</t>
+    <t>asignatura0001:1;asignatura0002:2</t>
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>logout</t>
   </si>
   <si>
     <t>PedroPeAdmin@mail.com</t>
@@ -150,6 +144,18 @@
     <t>funcionario1</t>
   </si>
   <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>altaCarrera</t>
+  </si>
+  <si>
+    <t>carrera 1</t>
+  </si>
+  <si>
+    <t>lorem ipsum sit amen</t>
+  </si>
+  <si>
     <t>altaAsignatura</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
   </si>
   <si>
     <t>asignatura 2</t>
-  </si>
-  <si>
-    <t>agregarPlanEstudio</t>
   </si>
   <si>
     <t>asignatura 1:1;asignatura 2:2</t>
@@ -279,10 +282,55 @@
     <t>El usuario no logró iniciar sesión y recibió el mensaje de error correspondiente.</t>
   </si>
   <si>
-    <t>Alta de usuarios coordinadores y funcionarios</t>
+    <t>Alta de usuarios coordinadores</t>
   </si>
   <si>
     <t>El usuario administrador da de alta a un usuario coordinador.</t>
+  </si>
+  <si>
+    <t>Estar logueado como un usuario administrador.</t>
+  </si>
+  <si>
+    <t>Nombre:Coordinador
+Apellido:Doe
+Email:email@gmail.com
+CI:12345678
+Fecha Nacimiento:1/1/1999
+Direccion:Direccion
+Telefono:099999998
+Tipo Usuario:COORDINADOR
+Contraseña:1234
+Confirmacion Contraseña:1234</t>
+  </si>
+  <si>
+    <t>1- El usuario hace click en el apartado Usuarios.
+2- El usuario hace click en el botón Agregar Usuario.
+3- El usuario completa los campos con los datos correspondientes.
+4- El usuario hace click en el botón Agregar.</t>
+  </si>
+  <si>
+    <t>El usuario es dado de alta correctamente.</t>
+  </si>
+  <si>
+    <t>El usuario es dado de alta correctamente devolviendo al administrador a la pantalla con la lista de usuarios con el usuario nuevo en ella.</t>
+  </si>
+  <si>
+    <t>Alta de usuarios funcionarios</t>
+  </si>
+  <si>
+    <t>El usuario administrador da de alta a un usuario funcionario.</t>
+  </si>
+  <si>
+    <t>Nombre:Funcionario
+Apellido:Doe
+Email:email@gmail.com
+CI:12345678
+Fecha Nacimiento:1/1/1999
+Direccion:Direccion
+Telefono:099999998
+Tipo Usuario:FUNCIONARIO
+Contraseña:1234
+Confirmacion Contraseña:1234</t>
   </si>
   <si>
     <t>Desactivar cuenta de usuario
@@ -334,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -365,13 +413,16 @@
       <alignment shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,9 +649,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="3" width="20.63"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
     <col customWidth="1" min="11" max="11" width="13.63"/>
     <col customWidth="1" min="13" max="13" width="16.88"/>
     <col customWidth="1" min="14" max="14" width="14.63"/>
+    <col customWidth="1" min="19" max="19" width="27.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -769,19 +822,31 @@
         <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
         <v>34</v>
       </c>
@@ -795,12 +860,8 @@
       <c r="AG3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -823,9 +884,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -35707,7 +35766,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3">
         <v>1234.0</v>
@@ -35721,16 +35780,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>1234.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
@@ -35742,13 +35801,13 @@
         <v>36526.0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4">
         <v>9.5111222E7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>34</v>
@@ -35759,16 +35818,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3">
         <v>1234.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -35780,13 +35839,13 @@
         <v>36526.0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" s="4">
         <v>9.5111222E7</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>34</v>
@@ -35797,7 +35856,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>34</v>
@@ -35811,7 +35870,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>1234.0</v>
@@ -35825,13 +35884,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>34</v>
@@ -35842,13 +35901,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -35864,13 +35923,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -35886,10 +35945,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="3"/>
@@ -35904,10 +35963,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -35920,7 +35979,7 @@
         <v>45504.0</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W11" s="6">
         <v>0.4166666666666667</v>
@@ -35937,10 +35996,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -35953,7 +36012,7 @@
         <v>45504.0</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W12" s="6">
         <v>0.375</v>
@@ -35970,10 +36029,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="5">
@@ -35994,7 +36053,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N14" s="3"/>
       <c r="P14" s="3"/>
@@ -36016,7 +36075,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3">
         <v>1234.0</v>
@@ -36038,13 +36097,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -36061,7 +36120,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>34</v>
@@ -36072,19 +36131,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3">
         <v>1234.0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3">
         <v>1.1112223E7</v>
@@ -36093,7 +36152,7 @@
         <v>36526.0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J18" s="3">
         <v>1.11222333E8</v>
@@ -36110,7 +36169,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3">
         <v>1234.0</v>
@@ -36124,10 +36183,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>34</v>
@@ -36138,7 +36197,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>34</v>
@@ -36152,7 +36211,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3">
         <v>1234.0</v>
@@ -36166,16 +36225,16 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>34</v>
@@ -36186,7 +36245,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>34</v>
@@ -36200,7 +36259,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3">
         <v>1234.0</v>
@@ -36214,10 +36273,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>34</v>
@@ -36228,10 +36287,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>34</v>
@@ -36286,10 +36345,10 @@
     <col customWidth="1" min="2" max="2" width="33.0"/>
     <col customWidth="1" min="3" max="3" width="27.25"/>
     <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="22.25"/>
+    <col customWidth="1" min="5" max="5" width="29.38"/>
     <col customWidth="1" min="6" max="6" width="35.63"/>
     <col customWidth="1" min="7" max="7" width="22.88"/>
-    <col customWidth="1" min="8" max="8" width="20.5"/>
+    <col customWidth="1" min="8" max="8" width="21.75"/>
     <col customWidth="1" min="9" max="9" width="21.88"/>
     <col customWidth="1" min="10" max="10" width="29.25"/>
     <col customWidth="1" min="11" max="11" width="13.63"/>
@@ -36300,39 +36359,39 @@
     <col customWidth="1" min="23" max="24" width="8.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1">
+    <row r="2" ht="80.25" customHeight="1">
       <c r="A2" s="7">
         <v>1.0</v>
       </c>
@@ -36340,31 +36399,31 @@
         <v>26</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" ht="71.25" customHeight="1">
       <c r="A3" s="7">
         <v>2.0</v>
       </c>
@@ -36372,64 +36431,90 @@
         <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" ht="63.75" customHeight="1">
+    <row r="4" ht="126.75" customHeight="1">
       <c r="A4" s="7">
         <v>3.0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" ht="35.25" customHeight="1">
+    <row r="5" ht="126.0" customHeight="1">
       <c r="A5" s="7">
         <v>4.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -36438,11 +36523,13 @@
       <c r="A6" s="7">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>88</v>
+      <c r="B6" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -36456,11 +36543,13 @@
       <c r="A7" s="7">
         <v>6.0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -36474,11 +36563,13 @@
       <c r="A8" s="7">
         <v>7.0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>90</v>
+      <c r="B8" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -36652,7 +36743,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>

--- a/src/main/resources/TestCases.xlsx
+++ b/src/main/resources/TestCases.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,15 @@
     <t>docente</t>
   </si>
   <si>
+    <t>periodoExamen</t>
+  </si>
+  <si>
+    <t>FechaHora</t>
+  </si>
+  <si>
+    <t>diasPrevios</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -108,7 +117,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>altaCurso</t>
+    <t>altaExamen</t>
   </si>
   <si>
     <t>&lt;empty&gt;</t>
@@ -127,6 +136,15 @@
   </si>
   <si>
     <t>Fernando</t>
+  </si>
+  <si>
+    <t>15/07/2024 - 20/07/2024</t>
+  </si>
+  <si>
+    <t>160720241200</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>PedroPeAdmin@mail.com</t>
@@ -219,6 +237,9 @@
     <t>asignatura 1:1;asignatura 2:2</t>
   </si>
   <si>
+    <t>altaCurso</t>
+  </si>
+  <si>
     <t>01/01/2024</t>
   </si>
   <si>
@@ -238,9 +259,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>altaExamen</t>
   </si>
   <si>
     <t>10/01/2025</t>
@@ -765,6 +783,7 @@
     <col customWidth="1" min="13" max="13" width="16.88"/>
     <col customWidth="1" min="14" max="14" width="19.0"/>
     <col customWidth="1" min="19" max="19" width="9.75"/>
+    <col customWidth="1" min="27" max="27" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -846,9 +865,15 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -856,16 +881,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -899,86 +924,92 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="AA3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -35893,16 +35924,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35925,7 +35956,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -35938,37 +35969,37 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -35984,7 +36015,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -35997,37 +36028,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -36043,7 +36074,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -36056,10 +36087,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -36084,7 +36115,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -36097,16 +36128,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -36129,7 +36160,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -36142,10 +36173,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -36157,10 +36188,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -36174,7 +36205,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -36187,10 +36218,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -36204,15 +36235,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -36221,7 +36252,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -36234,10 +36265,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -36251,15 +36282,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -36268,7 +36299,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -36281,10 +36312,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -36303,7 +36334,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="1"/>
@@ -36311,7 +36342,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -36324,10 +36355,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -36341,7 +36372,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -36349,22 +36380,22 @@
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
       <c r="T11" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -36377,82 +36408,82 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="W12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -36464,10 +36495,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -36481,12 +36512,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
@@ -36496,7 +36527,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -36509,10 +36540,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -36537,7 +36568,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -36550,16 +36581,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -36582,7 +36613,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -36595,10 +36626,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -36612,11 +36643,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -36627,7 +36658,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -36640,10 +36671,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -36668,7 +36699,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -36681,34 +36712,34 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -36725,7 +36756,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -36738,16 +36769,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -36770,7 +36801,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -36783,10 +36814,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -36798,7 +36829,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -36813,7 +36844,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -36826,10 +36857,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -36854,7 +36885,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -36867,16 +36898,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -36899,7 +36930,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -36912,18 +36943,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -36931,7 +36962,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -36946,7 +36977,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -36959,10 +36990,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -36987,7 +37018,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -37000,16 +37031,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -37032,7 +37063,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -37045,10 +37076,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -37062,7 +37093,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -37075,7 +37106,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -37088,10 +37119,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -37105,7 +37136,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -37118,7 +37149,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -37400,7 +37431,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -37437,7 +37468,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -37474,7 +37505,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -37511,7 +37542,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -37548,7 +37579,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -37585,7 +37616,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -71514,31 +71545,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="80.25" customHeight="1">
@@ -71546,28 +71577,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -71578,28 +71609,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -71610,28 +71641,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -71642,28 +71673,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -71674,11 +71705,11 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -71694,11 +71725,11 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -71714,11 +71745,11 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>

--- a/src/main/resources/TestCases.xlsx
+++ b/src/main/resources/TestCases.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -36,7 +36,7 @@
     <t>ci</t>
   </si>
   <si>
-    <t>fechaNac</t>
+    <t>fechaNac (yyyy-mm-dd)</t>
   </si>
   <si>
     <t>domicilio</t>
@@ -102,55 +102,52 @@
     <t>diasPrevios</t>
   </si>
   <si>
-    <t>1</t>
+    <t>registrarEstudiante</t>
+  </si>
+  <si>
+    <t>ruben@yagoo.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Aguirre</t>
+  </si>
+  <si>
+    <t>12345672</t>
+  </si>
+  <si>
+    <t>1934-06-15</t>
+  </si>
+  <si>
+    <t>Narnia 456</t>
+  </si>
+  <si>
+    <t>095111223</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
-    <t>CarlaMiranda@mail.com</t>
+    <t>fechaNac</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PedroPeAdmin@mail.com</t>
   </si>
   <si>
     <t>1234</t>
   </si>
   <si>
-    <t>2</t>
+    <t>s</t>
   </si>
   <si>
-    <t>altaExamen</t>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-  </si>
-  <si>
-    <t>Tecnologo informatico</t>
-  </si>
-  <si>
-    <t>Programacion avanzada</t>
-  </si>
-  <si>
-    <t>20-07-2024</t>
-  </si>
-  <si>
-    <t>20-07-2025</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>15/07/2024 - 20/07/2024</t>
-  </si>
-  <si>
-    <t>160720241200</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>PedroPeAdmin@mail.com</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>2</t>
   </si>
   <si>
     <t>agregarUsuario</t>
@@ -258,10 +255,37 @@
     <t>11</t>
   </si>
   <si>
+    <t>&lt;empty&gt;</t>
+  </si>
+  <si>
+    <t>Tecnologo informatico</t>
+  </si>
+  <si>
+    <t>Programacion avanzada</t>
+  </si>
+  <si>
+    <t>20-07-2024</t>
+  </si>
+  <si>
+    <t>20-07-2025</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>10/01/2025</t>
+    <t>altaExamen</t>
+  </si>
+  <si>
+    <t>15/07/2024 - 20/07/2024</t>
+  </si>
+  <si>
+    <t>160720241200</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>13</t>
@@ -777,7 +801,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="3" width="20.63"/>
-    <col customWidth="1" min="5" max="5" width="17.25"/>
+    <col customWidth="1" min="5" max="5" width="14.13"/>
+    <col customWidth="1" min="6" max="6" width="12.88"/>
+    <col customWidth="1" min="8" max="8" width="18.63"/>
+    <col customWidth="1" min="9" max="9" width="13.5"/>
     <col customWidth="1" min="11" max="11" width="13.63"/>
     <col customWidth="1" min="12" max="12" width="17.25"/>
     <col customWidth="1" min="13" max="13" width="16.88"/>
@@ -880,24 +907,34 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -923,93 +960,41 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -1029,11 +1014,11 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1099,17 +1084,17 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -1134,13 +1119,13 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1205,11 +1190,11 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1242,7 +1227,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1263,8 +1248,8 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1298,8 +1283,8 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1344,17 +1329,17 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -1368,14 +1353,14 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1405,12 +1390,12 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1438,8 +1423,8 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1447,7 +1432,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1482,7 +1467,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1508,8 +1493,8 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1543,16 +1528,16 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1580,14 +1565,14 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1613,8 +1598,8 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1648,8 +1633,8 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1659,7 +1644,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1716,8 +1701,8 @@
       <c r="AG23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1729,7 +1714,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1740,7 +1725,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -35770,41 +35755,6 @@
       <c r="AF996" s="2"/>
       <c r="AG996" s="2"/>
     </row>
-    <row r="997">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-      <c r="AA997" s="2"/>
-      <c r="AB997" s="2"/>
-      <c r="AC997" s="2"/>
-      <c r="AD997" s="2"/>
-      <c r="AE997" s="2"/>
-      <c r="AF997" s="2"/>
-      <c r="AG997" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -35835,6 +35785,7 @@
     <col customWidth="1" min="20" max="21" width="9.38"/>
     <col customWidth="1" min="22" max="22" width="6.13"/>
     <col customWidth="1" min="23" max="24" width="8.25"/>
+    <col customWidth="1" min="27" max="27" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35860,7 +35811,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -35913,10 +35864,18 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -35924,16 +35883,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35956,7 +35915,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -35969,37 +35928,37 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -36015,7 +35974,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -36028,37 +35987,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -36074,7 +36033,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -36087,10 +36046,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -36115,7 +36074,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -36128,16 +36087,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -36160,7 +36119,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -36173,10 +36132,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -36188,10 +36147,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -36205,7 +36164,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -36218,10 +36177,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -36235,15 +36194,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -36252,7 +36211,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -36265,10 +36224,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -36282,15 +36241,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -36299,7 +36258,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -36312,10 +36271,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -36334,7 +36293,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="1"/>
@@ -36342,7 +36301,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -36355,10 +36314,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -36372,7 +36331,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -36380,22 +36339,22 @@
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
       <c r="T11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -36408,82 +36367,82 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -36495,44 +36454,92 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
+      <c r="M13" s="1" t="s">
+        <v>80</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="Y13" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="Z13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -36540,10 +36547,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -36568,7 +36575,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -36581,16 +36588,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -36613,7 +36620,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -36626,10 +36633,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -36643,11 +36650,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -36658,7 +36665,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -36671,10 +36678,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -36699,7 +36706,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -36712,34 +36719,34 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -36756,7 +36763,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -36769,16 +36776,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -36801,7 +36808,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -36814,10 +36821,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -36829,7 +36836,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -36844,7 +36851,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -36857,10 +36864,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -36885,7 +36892,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -36898,16 +36905,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -36930,7 +36937,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -36943,18 +36950,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -36962,7 +36969,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -36977,7 +36984,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -36990,10 +36997,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -37018,7 +37025,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -37031,16 +37038,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -37063,7 +37070,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -37076,10 +37083,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -37093,7 +37100,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -37106,7 +37113,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -37119,10 +37126,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -37136,7 +37143,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -37149,7 +37156,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -37431,7 +37438,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -37468,7 +37475,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -37505,7 +37512,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -37542,7 +37549,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -37579,7 +37586,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -37616,7 +37623,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -71545,31 +71552,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="80.25" customHeight="1">
@@ -71577,28 +71584,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -71609,28 +71616,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -71641,28 +71648,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -71673,28 +71680,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -71705,11 +71712,11 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -71725,11 +71732,11 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -71745,11 +71752,11 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>

--- a/src/main/resources/TestCases.xlsx
+++ b/src/main/resources/TestCases.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -102,34 +102,25 @@
     <t>diasPrevios</t>
   </si>
   <si>
-    <t>registrarEstudiante</t>
+    <t>login</t>
   </si>
   <si>
-    <t>ruben@yagoo.com</t>
+    <t>CarlaMiranda@mail.com</t>
   </si>
   <si>
-    <t>12345</t>
+    <t>1234</t>
   </si>
   <si>
-    <t>Ruben</t>
+    <t>aprobarInscCarrera</t>
   </si>
   <si>
-    <t>Aguirre</t>
+    <t>&lt;empty&gt;</t>
   </si>
   <si>
     <t>12345672</t>
   </si>
   <si>
-    <t>1934-06-15</t>
-  </si>
-  <si>
-    <t>Narnia 456</t>
-  </si>
-  <si>
-    <t>095111223</t>
-  </si>
-  <si>
-    <t>login</t>
+    <t>Tecnologo informatico</t>
   </si>
   <si>
     <t>fechaNac</t>
@@ -139,9 +130,6 @@
   </si>
   <si>
     <t>PedroPeAdmin@mail.com</t>
-  </si>
-  <si>
-    <t>1234</t>
   </si>
   <si>
     <t>s</t>
@@ -255,12 +243,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>&lt;empty&gt;</t>
-  </si>
-  <si>
-    <t>Tecnologo informatico</t>
-  </si>
-  <si>
     <t>Programacion avanzada</t>
   </si>
   <si>
@@ -343,9 +325,6 @@
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>aprobarInscCarrera</t>
   </si>
   <si>
     <t>23</t>
@@ -503,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -516,17 +495,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -535,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,6 +532,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -558,13 +550,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -917,24 +909,12 @@
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -949,7 +929,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -961,29 +941,45 @@
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1049,17 +1045,17 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -1084,13 +1080,13 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1155,11 +1151,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1192,7 +1188,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1213,8 +1209,8 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1248,8 +1244,8 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1294,17 +1290,17 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -1318,14 +1314,14 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1355,12 +1351,12 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1388,8 +1384,8 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1397,7 +1393,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1432,7 +1428,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1458,8 +1454,8 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1493,16 +1489,16 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1530,14 +1526,14 @@
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1563,8 +1559,8 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1598,8 +1594,8 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1609,7 +1605,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1666,8 +1662,8 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1679,7 +1675,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1690,7 +1686,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -35719,41 +35715,6 @@
       <c r="AE995" s="2"/>
       <c r="AF995" s="2"/>
       <c r="AG995" s="2"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-      <c r="AA996" s="2"/>
-      <c r="AB996" s="2"/>
-      <c r="AC996" s="2"/>
-      <c r="AD996" s="2"/>
-      <c r="AE996" s="2"/>
-      <c r="AF996" s="2"/>
-      <c r="AG996" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -35811,7 +35772,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -35883,16 +35844,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35915,7 +35876,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -35928,37 +35889,37 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -35974,7 +35935,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -35987,37 +35948,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -36033,7 +35994,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -36046,10 +36007,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -36074,7 +36035,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -36087,16 +36048,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -36119,7 +36080,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -36132,10 +36093,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -36147,10 +36108,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -36164,7 +36125,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -36177,10 +36138,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -36194,15 +36155,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -36211,7 +36172,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -36224,10 +36185,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -36241,15 +36202,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -36258,7 +36219,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -36271,10 +36232,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -36293,7 +36254,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="1"/>
@@ -36301,7 +36262,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -36314,10 +36275,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -36331,7 +36292,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -36339,22 +36300,22 @@
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
       <c r="T11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -36367,82 +36328,82 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -36454,91 +36415,91 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -36547,10 +36508,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -36575,7 +36536,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -36588,16 +36549,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -36620,7 +36581,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -36633,10 +36594,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -36650,11 +36611,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -36665,7 +36626,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -36678,10 +36639,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -36706,7 +36667,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -36719,34 +36680,34 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -36763,7 +36724,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -36776,16 +36737,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -36808,7 +36769,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -36821,38 +36782,54 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L20" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -36864,10 +36841,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -36892,7 +36869,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -36905,16 +36882,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -36937,7 +36914,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -36950,18 +36927,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -36969,7 +36946,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -36984,7 +36961,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -36997,10 +36974,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -37025,7 +37002,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -37038,16 +37015,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -37070,7 +37047,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -37083,10 +37060,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -37100,7 +37077,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -37113,7 +37090,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -37126,10 +37103,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -37143,7 +37120,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -37156,7 +37133,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -37438,7 +37415,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -37475,7 +37452,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -37512,7 +37489,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -37549,7 +37526,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -37586,7 +37563,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -37623,7 +37600,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -71548,1469 +71525,1469 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="80.25" customHeight="1">
+      <c r="A2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" ht="80.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>1.0</v>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" ht="71.25" customHeight="1">
+      <c r="A3" s="5">
+        <v>2.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" ht="126.75" customHeight="1">
+      <c r="A4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" ht="71.25" customHeight="1">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>131</v>
+      <c r="I4" s="6" t="s">
+        <v>124</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" ht="126.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3.0</v>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" ht="126.0" customHeight="1">
+      <c r="A5" s="5">
+        <v>4.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>144</v>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>133</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" ht="126.0" customHeight="1">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8.0</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9.0</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11.0</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12.0</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="Q13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13.0</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14.0</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15.0</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16.0</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17.0</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19.0</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20.0</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
     </row>
     <row r="59">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
     </row>
     <row r="60">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
     </row>
     <row r="62">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
     </row>
     <row r="65">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
     </row>
     <row r="69">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
     </row>
     <row r="70">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
     </row>
     <row r="71">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
     </row>
     <row r="72">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
     </row>
     <row r="73">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
     </row>
     <row r="75">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
     </row>
     <row r="80">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
     </row>
     <row r="81">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
     </row>
     <row r="82">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
     </row>
     <row r="83">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
     </row>
     <row r="84">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
     </row>
     <row r="85">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
     </row>
     <row r="86">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
     </row>
     <row r="87">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
     </row>
     <row r="88">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
     </row>
     <row r="89">
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
     </row>
     <row r="90">
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
     </row>
     <row r="91">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
     </row>
     <row r="92">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
     </row>
     <row r="93">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
     </row>
     <row r="94">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
     </row>
     <row r="95">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
     </row>
     <row r="96">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
     </row>
     <row r="97">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
     </row>
     <row r="98">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
     </row>
     <row r="99">
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
     </row>
     <row r="100">
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
